--- a/biology/Histoire de la zoologie et de la botanique/Johann_David_Schoepff/Johann_David_Schoepff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_David_Schoepff/Johann_David_Schoepff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann David Schoepff, Schoepf ou Schöpf est un zoologiste, un botaniste et un médecin allemand, célèbre pour son exploration de l'Amérique du Nord, né le 8 mars 1752 à  Wunsiedel et mort le 10 septembre 1800 à Ansbach.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'université d'Erlangen il suit les enseignements du naturaliste Philipp Ludwig Statius Müller (1725-1776) et du dernier élève de Carl von Linné, Johann Christian Daniel von Schreber (1739-1810). Il obtient son titre de docteur en médecine en 1776.
 En 1777, le margrave d’Ansbach, Christian Friedrich Carl Alexander, pour se libérer d’une dette due à l’Angleterre, fait parvenir un contingent de 1 285 hommes pour aider la couronne britannique face à la rébellion américaine. Schopf se porte volontaire comme chirurgien et médecin. Ces troupes arrivent en juin 1777 à Staten Island et y demeurent toute la guerre.
